--- a/src/attributions/attributions_ig_traj_334.xlsx
+++ b/src/attributions/attributions_ig_traj_334.xlsx
@@ -1004,79 +1004,79 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.202137885601802</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.2875616849447382</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.04916866915458551</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.05645511656510206</v>
+        <v>-0.03508385158456093</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007991498221176839</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1549949799775059</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0.1868644542137752</v>
       </c>
       <c r="L2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0.05703157391383253</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.09414697675605006</v>
+        <v>-0.05474712759342636</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0004107289634947568</v>
+        <v>-0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01015203987127138</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.1206807837434192</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0.011313443801532</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.08411577598775577</v>
+        <v>0.01825051592766571</v>
       </c>
       <c r="X2" t="n">
         <v>-0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.08163470467723977</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1085,79 +1085,79 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04813815052536524</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.08010733531357578</v>
       </c>
       <c r="AD2" t="n">
         <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.02626001346801477</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.03220510358610584</v>
+        <v>-0.06008994739085107</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.02640442942348786</v>
+        <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
         <v>-0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.08637417308002678</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.03824346145446476</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0.05476268607443499</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.04642682230882777</v>
+        <v>-0.05724014632862098</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.02307124455267096</v>
+        <v>-0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1842781138006548</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>0.3910389620238957</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0</v>
+        <v>-0.07112939969320639</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.002475626098592444</v>
+        <v>0.1073347573310283</v>
       </c>
       <c r="AY2" t="n">
         <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.04890804114480429</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
         <v>-0</v>
@@ -1166,25 +1166,25 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.09485342677059504</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0</v>
+        <v>0.06268378662608781</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>-0.05419754738885168</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.04572314583782956</v>
+        <v>-0.1714044837587416</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.01586218747288141</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
         <v>0</v>
@@ -1193,52 +1193,52 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.02918328646293202</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.08649940010677348</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0</v>
+        <v>0.0889550999153564</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.07636505126888354</v>
+        <v>0.1370041981581986</v>
       </c>
       <c r="BQ2" t="n">
         <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.05484717504254748</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
         <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.1575128601420618</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.2433379336229385</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>-0.01027184438393714</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.02598607722871357</v>
+        <v>0.03251334630057932</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.05624520276433268</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
         <v>-0</v>
@@ -1247,52 +1247,52 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.09331924556301571</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.1046876796052372</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0</v>
+        <v>0.03754056057741093</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02095614470630938</v>
+        <v>-0.02053975411173858</v>
       </c>
       <c r="CI2" t="n">
         <v>-0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.02430000843868677</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.01544473857115861</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>-0.01455135153450846</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>-0.005581607112081109</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.04878424991623442</v>
+        <v>-0.0551390622979059</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.001504452830739434</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
         <v>-0</v>
@@ -1301,52 +1301,52 @@
         <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.08228165676764038</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.09721657937454102</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>0.06877484758882475</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.004417096582191284</v>
+        <v>-0.01694533492893308</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.01348469166674678</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.02354709411685284</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.07871607339187257</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.1743059842711954</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.02196349307177344</v>
+        <v>-0.02729263284921977</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.01891697573499073</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
         <v>0</v>
@@ -1355,187 +1355,187 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0219512137900826</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.07955516908643247</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>-0.07743847770319459</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.05422933677279309</v>
+        <v>-0.02356452782535355</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.0547138691728931</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.002996096839045012</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>0.03095433790678925</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0</v>
+        <v>0.00359314839253035</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.05388106998810886</v>
+        <v>-0.03279468198343286</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.002113076318308267</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
         <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.1460765400470004</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.1004088106841932</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>-0.1182146961832013</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0396997739061802</v>
+        <v>0.08420377560068468</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.06681195688578996</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.04907046327913589</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0.09032191128343642</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>0.1033858545114475</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.11312968190474</v>
+        <v>-0.05326855862804486</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02387466563628816</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.08198406719810894</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.09222352973821804</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0</v>
+        <v>0.06610024424042325</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.0007622815181075785</v>
+        <v>-0.02817393609221305</v>
       </c>
       <c r="FC2" t="n">
         <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.007425665481863111</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.06915226466280955</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>0.03166039943361013</v>
       </c>
       <c r="FI2" t="n">
         <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>0.04974388937611508</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.02889755206159965</v>
+        <v>-0.02773267283674831</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.02036351329170541</v>
+        <v>-0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.02250217268272701</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>0.01216710103887034</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0</v>
+        <v>0.01549477217124923</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.004412857853353753</v>
+        <v>-0.09626610315252219</v>
       </c>
       <c r="FU2" t="n">
         <v>-0</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.01758667339125277</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
         <v>0</v>
@@ -1544,600 +1544,600 @@
         <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.03899818507733718</v>
+        <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.03465461288083418</v>
       </c>
       <c r="GA2" t="n">
         <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>0.03939035125205836</v>
       </c>
       <c r="GC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.01461071487077599</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>-0.05657032922563798</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2141761905311439</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.2206778831596863</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003529053032399263</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01617261607353308</v>
+        <v>0.09561480608313083</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.01606098363108681</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.005657527349946985</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>-0.003354584733396546</v>
       </c>
       <c r="K3" t="n">
-        <v>0.132077500916025</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.1314385013453385</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006398412756918707</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004859513858546919</v>
+        <v>0.008078325747970724</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.01553833710283954</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01544409543772307</v>
+        <v>-0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-0.07001644433804299</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.0147110257508338</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.07221133074413989</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.04416387874124002</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.001492569040030973</v>
+        <v>-0.002310894449742559</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-0.07085895905375193</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.02218368629289364</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>-0.04648959143909299</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1343075429074421</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>-0.02868385689615417</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.04291975284955718</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.02791582073174329</v>
+        <v>-0.03456330460362744</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>0.03072818473762002</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.04670376903637285</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0.0250398669655454</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1479070899429078</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>-0.03064233091187257</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.0004725908739606598</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.00580091268305294</v>
+        <v>-0.008616608852701869</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>0.03057432912094433</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.01010757067892959</v>
+        <v>-0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>-0.05243546824511153</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1704377368631223</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>0.3236895224119415</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.03693204702753126</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.06095476561645857</v>
+        <v>0.4625949160891574</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>0.1622288199564272</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.07423593905420255</v>
+        <v>-0</v>
       </c>
       <c r="BB3" t="n">
         <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>-0.1601541056855969</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.1379178721559163</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>-0.03843571913849204</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.02532910153322085</v>
+        <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.02590722953587785</v>
+        <v>-0.02865996860947488</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>0.003662045143945404</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.04266256264992666</v>
+        <v>0</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0</v>
+        <v>-0.05483007094544864</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0147847734619167</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0.1129997437536668</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.06687032023202509</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.04958413067202472</v>
+        <v>0.07172767879568824</v>
       </c>
       <c r="BQ3" t="n">
         <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0</v>
+        <v>-0.06525404126078567</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.01956026001056043</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
         <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>-0.0363501323545963</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.09766210317635478</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>0.1785986868610728</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.01815990729408382</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.01917010236947196</v>
+        <v>0.2992654950657107</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0</v>
+        <v>0.01665113652191133</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0.01169459175663031</v>
+        <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>0.06056997599136519</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0.08158652665133562</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0</v>
+        <v>-0.06063621376526408</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0.02988840546356403</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.001903055181295759</v>
+        <v>-0.01199649336484932</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>-0.02569506237924058</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.000122096739319192</v>
+        <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0</v>
+        <v>0.04094996110551728</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0.02454144180948661</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>0.00857098631620693</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.01873489860254113</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.03145471038506655</v>
+        <v>-0.1498061399593144</v>
       </c>
       <c r="CR3" t="n">
         <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0</v>
+        <v>-0.001366267442244579</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0.0003973104597095938</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0</v>
+        <v>0.0304206355430492</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0.08416089673409269</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0</v>
+        <v>-0.05884604490933404</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0.01043137505447081</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.005017433866226787</v>
+        <v>0.005985311065094982</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0.01662746016250794</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0.001305681112726314</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>0.08795899297189221</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0.03534605556764811</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0</v>
+        <v>-0.09067166187923929</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.02295276635622561</v>
+        <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.04119537544479009</v>
+        <v>0.1842035181396022</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0.04330339413785377</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0.07590523834499507</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
         <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0.1354894765930943</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.00206332405730468</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>0.01360973518575739</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.007653621987092895</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.01868024519485849</v>
+        <v>0.100950555773172</v>
       </c>
       <c r="DS3" t="n">
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>0.03661743061567498</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.005051125182196857</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0.02390404591798257</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0131032557006979</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>-0.02074295438760931</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.01896502086998343</v>
+        <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.04480641765725381</v>
+        <v>-0.1681491699055639</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0</v>
+        <v>-0.0384671687632827</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0.008677381531366888</v>
+        <v>-0</v>
       </c>
       <c r="EE3" t="n">
         <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>0.01578484041914852</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0.09581429772365721</v>
+        <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>-0.14493288716756</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.02911864790879417</v>
+        <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.02144486275514473</v>
+        <v>-0.03755196472211719</v>
       </c>
       <c r="EK3" t="n">
         <v>-0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>-0.0755129999986843</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0291280694729752</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0</v>
+        <v>0.06754370628021103</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0.06007969835011708</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>-0.01835058223885087</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.03964467267391539</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.05665892186807535</v>
+        <v>-0.1265628898252841</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>-0.1264643910053201</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0297301478559333</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>0.03594638219404891</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0.08295274584274584</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0</v>
+        <v>-0.06394276598720991</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0.01754507482393659</v>
+        <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.01036525164564923</v>
+        <v>0.004878723471495576</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>-0.03488915224583591</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.01360851448856729</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
         <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0.03003689220642247</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0.07732153555216169</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0</v>
+        <v>-0.06000123487803049</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.07063458040296575</v>
+        <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.04962039870087576</v>
+        <v>-0.09443853360326596</v>
       </c>
       <c r="FL3" t="n">
         <v>-0</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>-0.1436425683059086</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.0450477999977448</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>0.06685177547565639</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0.0283043070584575</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>0.06739231381642058</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.01004148731751367</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.004789969115724208</v>
+        <v>-0.08366143330944349</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>-0.1147662513825859</v>
       </c>
       <c r="FW3" t="n">
-        <v>-0.05752940668099969</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>-0</v>
+        <v>-0.0080864288198161</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.01014410258022241</v>
+        <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0</v>
+        <v>0.08859242636803462</v>
       </c>
       <c r="GB3" t="n">
-        <v>-0.09882366110388668</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0.1157175557866199</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.03430918476342478</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,25 +2145,25 @@
         <v>-0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2960978164788861</v>
+        <v>0.08965150017321916</v>
       </c>
       <c r="C4" t="n">
         <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1223448463665148</v>
+        <v>-0.0170789610339525</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1734964400593589</v>
+        <v>-0.05352850468919734</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>-0</v>
@@ -2172,19 +2172,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2374046576382014</v>
+        <v>0.06956041941136624</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.07222507542583796</v>
+        <v>-0.01092649068596171</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1634856824316163</v>
+        <v>-0.04080451336594818</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
@@ -2199,46 +2199,46 @@
         <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.08533200905559848</v>
+        <v>0.01004583688780034</v>
       </c>
       <c r="U4" t="n">
         <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.05232287989348855</v>
+        <v>-0.02228672003403406</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.08585547206016078</v>
+        <v>-0.01495497450072333</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1190505029183843</v>
+        <v>0.02547407592521764</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.004624652291451851</v>
+        <v>0.01762808769943115</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1888530027760565</v>
+        <v>0.01301757867274005</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -2247,25 +2247,25 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1045358418188945</v>
+        <v>0.0115651996263843</v>
       </c>
       <c r="AM4" t="n">
         <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.03662432607817779</v>
+        <v>0.006009181088453967</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.09636116411579795</v>
+        <v>-0.04227263681546259</v>
       </c>
       <c r="AQ4" t="n">
         <v>0</v>
@@ -2274,25 +2274,25 @@
         <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
         <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1419309000012934</v>
+        <v>0.0791834664481947</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.02681258356031987</v>
+        <v>0.00123275824311689</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.1079077222521097</v>
+        <v>-0.04672808746059894</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2301,55 +2301,55 @@
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.2012900699309854</v>
+        <v>0.05291695061004667</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0008451631740498662</v>
+        <v>-0.04264598205207718</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.02903784814198813</v>
+        <v>-0.03376702912166076</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.01434032641685669</v>
+        <v>0.03706896050709246</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1695039123950716</v>
+        <v>0.01945993885466902</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.2514966899872718</v>
+        <v>0.01572102095923825</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>-0</v>
@@ -2361,34 +2361,34 @@
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.08294369942218216</v>
+        <v>0.04761814820520714</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.2475617852843175</v>
+        <v>-0.001193858673153701</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0.291592095077955</v>
+        <v>-0.03107683892657171</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0.08137620781147475</v>
+        <v>-0.02672163540345887</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2397,37 +2397,37 @@
         <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.04047503653387143</v>
+        <v>0.00254469009921057</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.07271776750918109</v>
+        <v>0.02544756870592889</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.05679559587267333</v>
+        <v>-0.006407012543007865</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.01405081283239185</v>
+        <v>0.000174951477567018</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0.08081329889427016</v>
+        <v>-0.008042889653908949</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
@@ -2436,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
         <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0.06098963915890047</v>
+        <v>-0.02331500158105047</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
@@ -2451,118 +2451,118 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.02071415039708828</v>
+        <v>0.001623864544739637</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.06031266941738285</v>
+        <v>0.03029166608282225</v>
       </c>
       <c r="DB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.002119128672774436</v>
+        <v>-0.007282102153568164</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.05079345106608221</v>
+        <v>0.01517312774977101</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0.04860864951044331</v>
+        <v>0.02439934094661182</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0186539863558879</v>
+        <v>0.007926680405662016</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.06525669464648767</v>
+        <v>0.04092671565278319</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0.1530352401608314</v>
+        <v>0.007614787452195921</v>
       </c>
       <c r="DT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV4" t="n">
         <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.01687763075572882</v>
+        <v>0.02406642314660831</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.02097981585628806</v>
+        <v>-0.02425716484874411</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.01541613604072305</v>
+        <v>-0.01012486991713645</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0.2071768690354343</v>
+        <v>-0.01975550624407111</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.1268944915250742</v>
+        <v>0.005198459933053023</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.1144487949529861</v>
+        <v>0.01114131142010665</v>
       </c>
       <c r="EL4" t="n">
         <v>-0</v>
@@ -2577,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.04885565400472897</v>
+        <v>-0.02555568749511729</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.03192117527895869</v>
+        <v>-0.01888572186811287</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.1615920219717145</v>
+        <v>0.02215223780885942</v>
       </c>
       <c r="EU4" t="n">
         <v>0</v>
@@ -2604,106 +2604,106 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.06372381092974173</v>
+        <v>-0.02421747896600241</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.05234174107584561</v>
+        <v>0.005820635238728196</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.08314963414555207</v>
+        <v>0.03008058881379578</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.04957454868582492</v>
+        <v>-0.01075231406612672</v>
       </c>
       <c r="FI4" t="n">
         <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.07036068094455898</v>
+        <v>-0.0304223936321125</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.1279266585387309</v>
+        <v>0.02267973957311843</v>
       </c>
       <c r="FM4" t="n">
         <v>-0</v>
       </c>
       <c r="FN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.05009100894369984</v>
+        <v>-0.01319409686276548</v>
       </c>
       <c r="FR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
         <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01151153663283939</v>
+        <v>0.002071910606969006</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.009438015787317495</v>
+        <v>-0.0008214566873142054</v>
       </c>
       <c r="FV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0.03940022926330594</v>
+        <v>-0.02556598483244166</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.01631094142152345</v>
+        <v>-0.01600642956751079</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG4" t="n">
         <v>-0</v>
@@ -2711,52 +2711,52 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4112177101044819</v>
+        <v>0.692670946117389</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1119883713033785</v>
+        <v>-0.2815834510071579</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01095503370321619</v>
+        <v>-0.1527192508473082</v>
       </c>
       <c r="F5" t="n">
         <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4137051483508038</v>
+        <v>0.5992279006726873</v>
       </c>
       <c r="L5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.07808576734527674</v>
+        <v>-0.1770090755289702</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03322802873228896</v>
+        <v>-0.1738228767444187</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2765,73 +2765,73 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.002866203652965157</v>
+        <v>0.1918799220474211</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.08278055570062876</v>
+        <v>-0.011118076433017</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1699056547078067</v>
+        <v>0.07242842753597387</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1856743362490913</v>
+        <v>0.2499598131161106</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.04894406537068182</v>
+        <v>0.009112932129526661</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1153119521380106</v>
+        <v>-0.09876115605476989</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.2443319316769675</v>
+        <v>0.08298953090992797</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.02105310374683082</v>
+        <v>-0.1371368262749483</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.00950615220813332</v>
+        <v>-0.1215438722773358</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -2849,25 +2849,25 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.5314134954271323</v>
+        <v>0.6396442157093252</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.05217398281013248</v>
+        <v>-0.1203572486727414</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1099562870961441</v>
+        <v>0.05423751818533025</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>-0</v>
@@ -2876,22 +2876,22 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.04797899107312455</v>
+        <v>0.1855895593369498</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.06545324234702418</v>
+        <v>-0.0770297466996961</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.01040027495241334</v>
+        <v>-0.2072777891875343</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
@@ -2903,70 +2903,70 @@
         <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0.04125621402789887</v>
+        <v>0.09215623169501821</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.1104759832058248</v>
+        <v>0.1390875333286443</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0001610261014845099</v>
+        <v>0.1965739366757976</v>
       </c>
       <c r="BQ5" t="n">
         <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.3287376224000549</v>
+        <v>0.4596203604854779</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0.03534566006988085</v>
+        <v>-0.05835938774371055</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.1917703843715981</v>
+        <v>0.1030839412799431</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
         <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0.2063516936997799</v>
+        <v>-0.1941620129679794</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0216361167607717</v>
+        <v>0.06585729093478764</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.06836130521223184</v>
+        <v>0.001616161760998283</v>
       </c>
       <c r="CI5" t="n">
         <v>-0</v>
@@ -2975,7 +2975,7 @@
         <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
@@ -2984,22 +2984,22 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0.1313774651709342</v>
+        <v>-0.05835812325868805</v>
       </c>
       <c r="CO5" t="n">
         <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.03514100819599226</v>
+        <v>-0.152470069243465</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.1658579125205831</v>
+        <v>-0.1797910428862951</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
@@ -3011,19 +3011,19 @@
         <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0.1848394643721091</v>
+        <v>-0.1984802685331126</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.05026867583065028</v>
+        <v>0.09731399027518618</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.07283538886087294</v>
+        <v>-0.01948827856766514</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
         <v>0</v>
@@ -3032,31 +3032,31 @@
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0.2318031374068214</v>
+        <v>-0.04939647784043341</v>
       </c>
       <c r="DG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.03414073291515108</v>
+        <v>0.3129964140847323</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.05700131092282161</v>
+        <v>0.01004066239176944</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
         <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
@@ -3065,19 +3065,19 @@
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0.05928823723058087</v>
+        <v>-0.1627884437344467</v>
       </c>
       <c r="DP5" t="n">
         <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0.01579875048865059</v>
+        <v>-0.1263419212664436</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.2681990164153035</v>
+        <v>-0.1775936500165514</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT5" t="n">
         <v>-0</v>
@@ -3086,49 +3086,49 @@
         <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0.1660798449516151</v>
+        <v>-0.2200305173967657</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.01677397187892931</v>
+        <v>-0.09520944382248742</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.02252525813007201</v>
+        <v>-0.07586896562147352</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
         <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0.1915119751801682</v>
+        <v>-0.1456541101655162</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.07406967996382167</v>
+        <v>0.1399655070006554</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.1126794599698057</v>
+        <v>0.1992780891195935</v>
       </c>
       <c r="EK5" t="n">
         <v>-0</v>
@@ -3140,55 +3140,55 @@
         <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0.1027791052158105</v>
+        <v>-0.1829819900404266</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.01807505538609707</v>
+        <v>0.06689202288078334</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.07503014089143747</v>
+        <v>0.02154966093786916</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0.1905031089601726</v>
+        <v>-0.1902856047528495</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.03692618320972268</v>
+        <v>0.1070745199716675</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.08553730037568671</v>
+        <v>-0.006683105537652478</v>
       </c>
       <c r="FC5" t="n">
         <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
         <v>-0</v>
@@ -3200,67 +3200,67 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.04885709516237044</v>
+        <v>-0.1520362003995589</v>
       </c>
       <c r="FI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.03700476152944811</v>
+        <v>0.09979224262307176</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.09121664903992079</v>
+        <v>-0.05866223300379084</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>-0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0.05546134946180498</v>
+        <v>0.05745841453456233</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.008270200863320209</v>
+        <v>-0.05484806171645745</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.02769297508547722</v>
+        <v>-0.1166191586027453</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
         <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0.09312199470053492</v>
+        <v>-0.09728524480414069</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.08147268394332971</v>
+        <v>-0.05034085561143231</v>
       </c>
       <c r="GC5" t="n">
         <v>0</v>
@@ -3269,30 +3269,30 @@
         <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
         <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.277290668809235</v>
+        <v>0.2051066660998437</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>-0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1204566738523264</v>
+        <v>-0.1714264935664901</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0981560231061907</v>
+        <v>0.1343758463962026</v>
       </c>
       <c r="F6" t="n">
         <v>-0</v>
@@ -3304,22 +3304,22 @@
         <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2442907458363921</v>
+        <v>0.219750856167513</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1199193172892234</v>
+        <v>-0.06413000689288867</v>
       </c>
       <c r="N6" t="n">
-        <v>0.009403751999506885</v>
+        <v>0.08378673602555699</v>
       </c>
       <c r="O6" t="n">
         <v>-0</v>
@@ -3328,31 +3328,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04282951164010435</v>
+        <v>0.04633431967056784</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.1201146803841515</v>
+        <v>0.1301934867182559</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.05274119654809626</v>
+        <v>0.09600428667436352</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -3361,19 +3361,19 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02019238161727013</v>
+        <v>-0.08782334792201589</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.04536325741364249</v>
+        <v>-0.06508627512818815</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.04859205817373539</v>
+        <v>-0.04559491928332133</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -3388,19 +3388,19 @@
         <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1298355685585661</v>
+        <v>-0.03450327618544947</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.07800296509393918</v>
+        <v>-0.02733925163834371</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.009321507663077395</v>
+        <v>-0.06701396635776023</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -3412,49 +3412,49 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1551664162058018</v>
+        <v>0.1347445312554785</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.0131981573798596</v>
+        <v>-0.06522536570775357</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.09121029912520696</v>
+        <v>0.2261708907848533</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
         <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.1278248924999789</v>
+        <v>0.2576140985759737</v>
       </c>
       <c r="BD6" t="n">
         <v>0</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.09607978900557972</v>
+        <v>0.01796306130910487</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.04175891422722253</v>
+        <v>0.04595914133122102</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
@@ -3466,64 +3466,64 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.03073783414927623</v>
+        <v>0.09441449390773836</v>
       </c>
       <c r="BM6" t="n">
         <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0.04454224650252225</v>
+        <v>0.04716032003109173</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03050171324437067</v>
+        <v>0.2021465124546372</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
         <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.1885175149674273</v>
+        <v>0.06356470352526175</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
         <v>-0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0.05153868454343146</v>
+        <v>0.01106478125396982</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.081254542680193</v>
+        <v>0.1481483898781914</v>
       </c>
       <c r="BZ6" t="n">
         <v>0</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
         <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.09635254546022771</v>
+        <v>-0.0415208048198111</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.01755347443921976</v>
+        <v>-0.0200044353232424</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.05258644132238645</v>
+        <v>-0.04805502389604575</v>
       </c>
       <c r="CI6" t="n">
         <v>0</v>
@@ -3547,37 +3547,37 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.03086160929381109</v>
+        <v>-0.06355906205621439</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.02852175604159296</v>
+        <v>-0.1438284424603799</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.07473143595435999</v>
+        <v>-0.1113321738502481</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.08120608302148678</v>
+        <v>-0.017152650641694</v>
       </c>
       <c r="CW6" t="n">
         <v>-0</v>
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.004994494327754763</v>
+        <v>0.01560003667645765</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.07290067125424726</v>
+        <v>-0.03860107448807707</v>
       </c>
       <c r="DA6" t="n">
         <v>-0</v>
@@ -3604,79 +3604,79 @@
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0.001073368019344892</v>
+        <v>-0.02622812487016317</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01407418105016371</v>
+        <v>0.1003285448673639</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.0404290879177663</v>
+        <v>-0.05346167297353791</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
         <v>-0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.01559050563431841</v>
+        <v>-0.05556455928673473</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0.02960321064813273</v>
+        <v>0.07992444007308216</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.005527354956761001</v>
+        <v>-0.1278937418203414</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.01898027356552707</v>
+        <v>-0.08621647363586943</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>-0.02951382340035195</v>
+        <v>-0.03351143051283249</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.02852975451391733</v>
+        <v>-0.1177773003941129</v>
       </c>
       <c r="EB6" t="n">
         <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,25 +3685,25 @@
         <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.1748364977893675</v>
+        <v>-0.04521071787726483</v>
       </c>
       <c r="EG6" t="n">
         <v>0</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.01436110118728729</v>
+        <v>0.04067760406885485</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.02819862491099808</v>
+        <v>0.02560340079816104</v>
       </c>
       <c r="EK6" t="n">
         <v>0</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.03621819718021905</v>
+        <v>0.01234673250564037</v>
       </c>
       <c r="EP6" t="n">
         <v>0</v>
@@ -3721,16 +3721,16 @@
         <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0.07311448289285286</v>
+        <v>0.04859036362260431</v>
       </c>
       <c r="ES6" t="n">
-        <v>-0.02945176874612218</v>
+        <v>0.01396564145714593</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.0830350998314104</v>
+        <v>-0.02327278093876996</v>
       </c>
       <c r="EY6" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.004972365556300445</v>
+        <v>-0.006306935649271228</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.07467491741834878</v>
+        <v>-0.05011858918225799</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
@@ -3763,22 +3763,22 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.09102897745811978</v>
+        <v>-0.05412444194926366</v>
       </c>
       <c r="FH6" t="n">
         <v>0</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.09963300505639583</v>
+        <v>0.04216231585267493</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.07418013813201334</v>
+        <v>-0.2391614221495183</v>
       </c>
       <c r="FL6" t="n">
         <v>0</v>
@@ -3793,34 +3793,34 @@
         <v>-0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0.02286004284078448</v>
+        <v>0.01270610679242614</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.08452532831273063</v>
+        <v>-0.04497790953649969</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.004499151115792151</v>
+        <v>0.07970831105080561</v>
       </c>
       <c r="FU6" t="n">
         <v>-0</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.09853883058845569</v>
+        <v>0.04280526321271828</v>
       </c>
       <c r="FZ6" t="n">
         <v>0</v>
@@ -3829,30 +3829,30 @@
         <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.03641468651663356</v>
+        <v>-0.0564743459876418</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
         <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -3930,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -4011,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -4092,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
@@ -4173,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG7" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
@@ -4227,10 +4227,10 @@
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH7" t="n">
         <v>0</v>
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ7" t="n">
         <v>0</v>
@@ -4308,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4445,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4499,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4526,10 +4526,10 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4607,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4634,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4661,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4688,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4742,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4769,10 +4769,10 @@
         <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4796,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY8" t="n">
         <v>0</v>
@@ -4823,10 +4823,10 @@
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4850,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4877,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4987,52 +4987,52 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.185345303557966</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.4898863792298052</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.2195734571514498</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06741928124348504</v>
+        <v>0.004301840717020753</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02433216078630838</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1561686818226566</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.3230576441928116</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.2347931730604849</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.09787422246592622</v>
+        <v>-0.01963735807578127</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.006673084186252424</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -5041,52 +5041,52 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.006399871236831081</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.116795392838721</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0.003155487219000597</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.0529447915177963</v>
+        <v>0.1984898868641507</v>
       </c>
       <c r="X9" t="n">
         <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.05581002688356621</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.02713385489691863</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.08923677184336534</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0</v>
+        <v>0.0334627397672863</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01662216066255032</v>
+        <v>-0.08288082873448363</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.04456919017952945</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -5095,52 +5095,52 @@
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.04617115306096189</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0.007406334071115631</v>
       </c>
       <c r="AM9" t="n">
         <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.07689087401552307</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.02636436649644971</v>
+        <v>-0.001953082809698603</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.01153145832373754</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.09631610200451216</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.38170823464185</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0.03360338317178071</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.00792363647247895</v>
+        <v>0.1485579590111811</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.009622430377984787</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
@@ -5149,79 +5149,79 @@
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.05209855270231128</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.06668318671420971</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>-0.2287165602604183</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.04064544082600701</v>
+        <v>-0.1509255100318254</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.01168566720300197</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.03181452422748282</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.1228957761028466</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.03456364667549564</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.05187755154539436</v>
+        <v>0.2249607232691341</v>
       </c>
       <c r="BQ9" t="n">
         <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.01137305933540977</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.07491777868290155</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.1870974677408242</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.0363810775801828</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.02701718410043214</v>
+        <v>0.1309739535366376</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.0148096198817909</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
@@ -5230,79 +5230,79 @@
         <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.05738788406331877</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.1250204366068784</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0</v>
+        <v>0.002289993948184891</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.02462510695451383</v>
+        <v>-0.02574816397850176</v>
       </c>
       <c r="CI9" t="n">
         <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.01309429725201735</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0.003916643292528036</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.005093997553190948</v>
       </c>
       <c r="CO9" t="n">
         <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>-0.2221832755519027</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.01501842357620573</v>
+        <v>-0.1004411567920544</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.01508628537193089</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0.05190554337818396</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.08905663842743793</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>0.0496666153297285</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.01190893937502749</v>
+        <v>-0.04054527860986346</v>
       </c>
       <c r="DA9" t="n">
         <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.009348850873710254</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
         <v>-0</v>
@@ -5311,25 +5311,25 @@
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0.009441139707751376</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.005592214626901436</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>0.106874327834612</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.01223750357008531</v>
+        <v>0.008532273804238792</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0.005326055859992223</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
         <v>0</v>
@@ -5338,52 +5338,52 @@
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.01452678700944883</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.08309583375135474</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0.008468719726991095</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.02210116574985957</v>
+        <v>-0.06070507028772641</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.03043633262131766</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0.003836643288895541</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.0558436782948882</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>-0.0387503176897569</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.02478088847084932</v>
+        <v>-0.06375108170628249</v>
       </c>
       <c r="EB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-4.447574949893113e-06</v>
+        <v>-0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
@@ -5392,25 +5392,25 @@
         <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0.08991888648894929</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.1018504226936212</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>-0.005733721615622637</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.005972635173973922</v>
+        <v>0.08744685921344626</v>
       </c>
       <c r="EK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0.03027027194543227</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
         <v>0</v>
@@ -5419,25 +5419,25 @@
         <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0.01640665125114354</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>0.01885828405238825</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>0.01717474344817701</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.06095854488984472</v>
+        <v>0.008580747420324886</v>
       </c>
       <c r="ET9" t="n">
         <v>0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.01463978178218018</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
@@ -5446,132 +5446,132 @@
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0.04974401128384294</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.0866902732988466</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>-0.01181380698303513</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.009185766654167956</v>
+        <v>-0.006135971483560244</v>
       </c>
       <c r="FC9" t="n">
         <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.00854827801360987</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.05932371396880531</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>0.01021811244340338</v>
       </c>
       <c r="FI9" t="n">
         <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.0004571318691481522</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.02574114526533075</v>
+        <v>-0.01892520848862679</v>
       </c>
       <c r="FL9" t="n">
         <v>-0</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0.002198950281732616</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.01615651207514986</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.03772142495823642</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0</v>
+        <v>0.0269585602647292</v>
       </c>
       <c r="FT9" t="n">
-        <v>-0.005130562383051225</v>
+        <v>-0.05362702661600456</v>
       </c>
       <c r="FU9" t="n">
         <v>-0</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.008172198729408095</v>
+        <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
         <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.04033650074368592</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>0.07478927210817721</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0.1263203274476374</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.03508670233252414</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1813266413981036</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.152873668995078</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.05279843217760424</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02727803422645455</v>
+        <v>-0.04585241272696219</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0.0794794516633283</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5583,157 +5583,157 @@
         <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1638803542800385</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1261164459681745</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.05585810100536439</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0347419018930375</v>
+        <v>-0.03476140764808417</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0.07492785439977322</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.004317321662610601</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.01163091317889218</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.01982341498210498</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.06416684500988391</v>
+        <v>-0.0007426299360666515</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.01532728809926734</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.009372982076700589</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>-0.005969581944613358</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.003337053849029319</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03303653850275361</v>
+        <v>0.01875294401366824</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0.005562864680223214</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.03219830440439014</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.01024618941514646</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.006968230395376516</v>
+        <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.02105000921778321</v>
+        <v>-0.01582463757297696</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>-0.01357930372702509</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.07776998059798459</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.1003293620136138</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.02161850584112716</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.01460330082115837</v>
+        <v>-0.007259138254044659</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0.007753969342811263</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.04203180420975733</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.04204083395759653</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.02687580464283061</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.02478499482812715</v>
+        <v>-0.06279641786391224</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>-0.08430639893907166</v>
       </c>
       <c r="BI10" t="n">
         <v>0</v>
@@ -5745,49 +5745,49 @@
         <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.01821570643209025</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.04432716305521988</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.02585826655574509</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
         <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05856325613383223</v>
+        <v>0.02439380207452361</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0</v>
+        <v>0.02146400247610832</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.07849798435096224</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.05404348012978649</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.01021477388581064</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02219888442986964</v>
+        <v>-0.004910684894858203</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0</v>
+        <v>-0.003460111703349216</v>
       </c>
       <c r="CA10" t="n">
         <v>-0</v>
@@ -5799,319 +5799,319 @@
         <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0.05012015085469641</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.0287376372542208</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.01950168470337817</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.001486940789273405</v>
+        <v>0.0001614260587979783</v>
       </c>
       <c r="CI10" t="n">
-        <v>0</v>
+        <v>0.02486390245792601</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0.007067969625230447</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>-0.004840915072713716</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.001075766321693021</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.03913394416705865</v>
+        <v>-0.002612768088029897</v>
       </c>
       <c r="CR10" t="n">
-        <v>0</v>
+        <v>-0.02122000617110018</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
         <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0.04748408076497998</v>
+        <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.02355057423762089</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.01984180981356161</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.01379908099129793</v>
+        <v>0.003684508522459971</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0</v>
+        <v>0.02508456539308271</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0.005896334121578351</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.01471175745172174</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.02503261048439634</v>
+        <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.01877605816072648</v>
+        <v>0.0260531556355841</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0.001191939362927994</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.002667163230662912</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.009457229597875559</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0.001675439090348633</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01736811392989015</v>
+        <v>0.01365078430856105</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>-0.01275840276073518</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.008890909866722124</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.04141920125464937</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0.006497374256944973</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.006734467861829104</v>
+        <v>0.01758971972289809</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0.008155823214846316</v>
       </c>
       <c r="EC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED10" t="n">
         <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0.07156944168244274</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.03354977044762174</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.0133393870136614</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.003811484830272021</v>
+        <v>0.007641230795468463</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>0.02430209170483043</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
         <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0.02019925281344005</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.01505852129638553</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.02143364813208809</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.01042307578297214</v>
+        <v>0.003490233596562857</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0</v>
+        <v>0.009187385830616113</v>
       </c>
       <c r="EU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV10" t="n">
         <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0.0446388025695122</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.02392794350498679</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.01909481524510896</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.01020112958842459</v>
+        <v>0.007301785558178113</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>0.02905866878865762</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0407770770748313</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>-0.02717315641628882</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.01768106755027459</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.03795445206274146</v>
+        <v>0.00865225756563045</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>0.01337092357926712</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.009417711868352852</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>0.009515734159440434</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.008742887082236722</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.02129536271116923</v>
+        <v>-0.01625152732836119</v>
       </c>
       <c r="FU10" t="n">
-        <v>0</v>
+        <v>0.008605018943952681</v>
       </c>
       <c r="FV10" t="n">
         <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.023118708467268</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.006621830061819618</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.005304747031801968</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0</v>
+        <v>-0.009277019959012983</v>
       </c>
       <c r="GE10" t="n">
         <v>0</v>
@@ -6125,25 +6125,25 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.171091684647149</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0.5583645709570435</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0.1918499696725843</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0519745787963953</v>
+        <v>-0.08014143578261618</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02835804576626336</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6152,25 +6152,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1618535846762355</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>0.375452992702587</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-0.1874508233636335</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.08617684972398143</v>
+        <v>-0.0676847509067984</v>
       </c>
       <c r="O11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.003327864531862597</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -6179,52 +6179,52 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01534999767289396</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.1213318878461047</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0.0228317393835805</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.05618454971683663</v>
+        <v>0.1143085542444814</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.0533136509181675</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01542903584403165</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.02102114163106059</v>
       </c>
       <c r="AD11" t="n">
         <v>-0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0</v>
+        <v>-0.004206518486527301</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.009474808131271389</v>
+        <v>-0.03177331712610375</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.04494373533052728</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -6233,52 +6233,52 @@
         <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.03962559769049086</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.03024105259020758</v>
       </c>
       <c r="AM11" t="n">
         <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0.07060731372709193</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.01571651078817782</v>
+        <v>-0.04058631738227208</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.009490873574534738</v>
+        <v>-0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.07489392127598532</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.3916144720079905</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0</v>
+        <v>0.0158493562844335</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.002853826898024611</v>
+        <v>0.06823745826401356</v>
       </c>
       <c r="AY11" t="n">
         <v>-0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01289037882524202</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
         <v>-0</v>
@@ -6287,187 +6287,187 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.04817316122596231</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.04179220658350058</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>-0.1966582865466927</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.03052006706961209</v>
+        <v>-0.1298599174131333</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.01977694266026989</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.02046844541319069</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.1504419085170852</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>0.08377009372295414</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.04017935889475856</v>
+        <v>0.1786123441145687</v>
       </c>
       <c r="BQ11" t="n">
         <v>-0</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.0132793589314172</v>
+        <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
         <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.06631332607554694</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.2165233493030241</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0</v>
+        <v>0.01167025754586231</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.01011569742690579</v>
+        <v>0.0422559233952523</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.01479068854196176</v>
+        <v>-0</v>
       </c>
       <c r="CB11" t="n">
         <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0.04341948683824209</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0.1208158289882797</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0</v>
+        <v>-0.0002781696914106662</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01298110052843691</v>
+        <v>-0.02009324824438892</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>-0.01175582948248029</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0.0006316145031689543</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>0.01874330016033296</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>-0.1261508543876563</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.03474550607001245</v>
+        <v>-0.1172792836709362</v>
       </c>
       <c r="CR11" t="n">
         <v>-0</v>
       </c>
       <c r="CS11" t="n">
-        <v>-0.02246495570743352</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0.03915533801904136</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.07962232009027953</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>0</v>
+        <v>0.0523748631882841</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0006523310933862556</v>
+        <v>-0.03207117958295563</v>
       </c>
       <c r="DA11" t="n">
         <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0.006646522607350221</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0.0006420497840793469</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.02094669734265907</v>
       </c>
       <c r="DG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>0.09921457320081781</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.004504598129874274</v>
+        <v>0.03049598773728608</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0.00390388184538568</v>
+        <v>-0</v>
       </c>
       <c r="DL11" t="n">
         <v>0</v>
@@ -6476,240 +6476,240 @@
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.01389689076572346</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0.1196678797241494</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0</v>
+        <v>-0.01077100926785784</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.02709836987218969</v>
+        <v>-0.06116812430829569</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.03273303042001479</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV11" t="n">
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.0002655054262889172</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>-0.1027227734412667</v>
       </c>
       <c r="DY11" t="n">
         <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>-0</v>
+        <v>-0.005684096072727032</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0153897665463805</v>
+        <v>0.05545843484507467</v>
       </c>
       <c r="EB11" t="n">
         <v>-0</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0002664671415120807</v>
+        <v>-0</v>
       </c>
       <c r="ED11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0.06915287693145751</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.09728665395825579</v>
       </c>
       <c r="EH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0.006702778819567382</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.005600121844819059</v>
+        <v>0.06916407189913926</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>-0.02838235271416485</v>
+        <v>0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
         <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0.01526077788838664</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>0.0485521486580312</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0.02513369913965888</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.04793458332361011</v>
+        <v>0.01482365450398025</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.008208528398587558</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0.03620602341719254</v>
+        <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.077015597587516</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0</v>
+        <v>9.279459167337774e-06</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.00102449385624048</v>
+        <v>0.007881825411555972</v>
       </c>
       <c r="FC11" t="n">
         <v>-0</v>
       </c>
       <c r="FD11" t="n">
-        <v>-0.006661074844361428</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.04354817565444789</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>-0.0537867039956603</v>
       </c>
       <c r="FI11" t="n">
         <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0</v>
+        <v>-0.001689277994626403</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.04512853311468352</v>
+        <v>0.04957122602049302</v>
       </c>
       <c r="FL11" t="n">
         <v>-0</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.01095627381558365</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
         <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.008620500976905645</v>
+        <v>-0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0.05654799493889806</v>
       </c>
       <c r="FR11" t="n">
         <v>0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>0.03109406867981772</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.009842008902054094</v>
+        <v>-0.08631498349291195</v>
       </c>
       <c r="FU11" t="n">
         <v>-0</v>
       </c>
       <c r="FV11" t="n">
-        <v>-0.00358982188938969</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.04249725679495628</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>0.08966215093649392</v>
       </c>
       <c r="GA11" t="n">
         <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0.1206755482296494</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.02204701339024965</v>
+        <v>0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.9241105220640065</v>
+        <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.7520904577435688</v>
       </c>
       <c r="C12" t="n">
-        <v>1.532172465233888</v>
+        <v>-0</v>
       </c>
       <c r="D12" t="n">
         <v>-0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3844808554999256</v>
+        <v>0.2140990174216457</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.225591647447795</v>
       </c>
       <c r="G12" t="n">
         <v>-0</v>
@@ -6718,25 +6718,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.086236757078253</v>
+        <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.6791643350584414</v>
       </c>
       <c r="L12" t="n">
-        <v>1.470858040010236</v>
+        <v>-0</v>
       </c>
       <c r="M12" t="n">
         <v>-0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1271121410456047</v>
+        <v>-0.04376961021011115</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.9157833256795846</v>
       </c>
       <c r="P12" t="n">
         <v>-0</v>
@@ -6745,52 +6745,52 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.07588747855606932</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>-0.03513257293227368</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1254876307478642</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>-0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4371282326183377</v>
+        <v>0.2743342085485395</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.05199784595634793</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.05632473458120064</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.03190013380969849</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.0136402395904307</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
         <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.03465434232017794</v>
+        <v>0.1301803602316647</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0.1383670084954971</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
@@ -6802,106 +6802,106 @@
         <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.3626683799785014</v>
+        <v>-0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>-0.05377330065759508</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.2889692693099995</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
         <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.08984718210891116</v>
+        <v>-0.07080179392821848</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>0.2033781667324231</v>
       </c>
       <c r="AQ12" t="n">
         <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>-0</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0.2938529047261087</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>-0.371239415460371</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.7645748060240739</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
         <v>-0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1721806654339041</v>
+        <v>0.320333892501329</v>
       </c>
       <c r="AY12" t="n">
-        <v>-0</v>
+        <v>0.641899435258263</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA12" t="n">
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0.1128348127465577</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>-0.2316922894782836</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.2466778182315725</v>
+        <v>-0</v>
       </c>
       <c r="BF12" t="n">
         <v>-0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.5737781740468088</v>
+        <v>0.1387950174244062</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>0.3142908783603678</v>
       </c>
       <c r="BI12" t="n">
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.02618266941908913</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>-0.3028099754903851</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0.3858001854955435</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
         <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.5473242079131367</v>
+        <v>-0.1374008754791492</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.05566555491796815</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
         <v>-0</v>
@@ -6910,22 +6910,22 @@
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0.6367608165663353</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>-0.3906016491980137</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.5208357417938907</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
         <v>-0</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.06102425447166427</v>
+        <v>0.1539761856008949</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>0.3740954655594676</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
@@ -6934,55 +6934,55 @@
         <v>0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.2616850815097787</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>0.1360037703279407</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0.3178672578468775</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.00490954664885569</v>
+        <v>-0.03700158132728459</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0</v>
+        <v>-0.2498778118308305</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
         <v>-0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.04514818450968359</v>
+        <v>-0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.003697159405518862</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.2850793279319389</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.2216916297940626</v>
+        <v>-0.2821167702866605</v>
       </c>
       <c r="CR12" t="n">
-        <v>0</v>
+        <v>0.05008163252390485</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT12" t="n">
         <v>0</v>
@@ -6991,133 +6991,133 @@
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.2354685202198823</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>0.1196367418857527</v>
       </c>
       <c r="CX12" t="n">
-        <v>-0.2916606655123068</v>
+        <v>0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.2152381442325956</v>
+        <v>-0.06691504289975812</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>-0.2639212790441514</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.002506210341362319</v>
+        <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>0.2309986497022291</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0.2413595978488296</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.06733306541662634</v>
+        <v>-0.3107523399320556</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>0.03726631838653221</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
         <v>-0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN12" t="n">
-        <v>-0.0003051165015528526</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0</v>
+        <v>0.01858886843753602</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.09894025241839388</v>
+        <v>-0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.2755497833224841</v>
+        <v>-0.08327988243733561</v>
       </c>
       <c r="DS12" t="n">
-        <v>0</v>
+        <v>-0.1336207069175909</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU12" t="n">
         <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.05648973718120593</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.08660517491064833</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.08404666217613252</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.2148994318529232</v>
+        <v>-0.09538108247331702</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>-0.1339785633174689</v>
       </c>
       <c r="EC12" t="n">
         <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.5278845897377862</v>
+        <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>0.1010632422762717</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0.4229784881143434</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
         <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.06920988364545956</v>
+        <v>-0.06337816534962909</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0</v>
+        <v>-0.2141316807994654</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM12" t="n">
         <v>-0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.04811723876009683</v>
+        <v>-0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>0.06915331574419964</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.0696469391085352</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.2190773716852255</v>
+        <v>-0.02026919290220554</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0.006628849796097354</v>
       </c>
       <c r="EU12" t="n">
         <v>0</v>
@@ -7150,52 +7150,52 @@
         <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.2846247184688504</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>0.1037596558866079</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0.3007396543438298</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.171571667034378</v>
+        <v>-0.06812609777656969</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0</v>
+        <v>-0.2327758939433711</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
         <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0.2238558652554785</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0.05351513659863656</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0.4411946917678365</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
         <v>0</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.1223751609840696</v>
+        <v>-0.003781138971022557</v>
       </c>
       <c r="FL12" t="n">
-        <v>-0</v>
+        <v>-0.1766410619563688</v>
       </c>
       <c r="FM12" t="n">
         <v>-0</v>
@@ -7204,25 +7204,25 @@
         <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.09564570499515165</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.03314459563035038</v>
       </c>
       <c r="FR12" t="n">
-        <v>-0.1908370652908054</v>
+        <v>0</v>
       </c>
       <c r="FS12" t="n">
         <v>0</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.03925946024131959</v>
+        <v>0.1310521430754595</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>-0.1313190489258594</v>
       </c>
       <c r="FV12" t="n">
         <v>0</v>
@@ -7234,39 +7234,39 @@
         <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>-0.1141031798033495</v>
+        <v>0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.03102262984926365</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.1877710906109957</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>0.000900414725728538</v>
       </c>
       <c r="GE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>-0.6263832898005766</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2612801802649684</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -7275,25 +7275,25 @@
         <v>-0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1564033061672355</v>
+        <v>0.2649003859054163</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>0.94976152783862</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4250214770540579</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-0.4663696943184349</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1489064833926059</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -7302,37 +7302,37 @@
         <v>-0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.2189935238831737</v>
+        <v>0.2540614654827956</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>0.8144316868934315</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3754235613258795</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0</v>
+        <v>-0.08732890430446363</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.007020472482302365</v>
+        <v>-0</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1876432542455932</v>
+        <v>0.2423384428608235</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>0.1724106598981262</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
@@ -7341,79 +7341,79 @@
         <v>-0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05530256298405445</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>-0.0650829520428097</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.1977616166457032</v>
+        <v>-0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.108971275611706</v>
+        <v>0.08700283111161761</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>0.06740393108866746</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.06799343024272993</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>-0.1476898807076158</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.1515373583135045</v>
+        <v>-0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0390657186378511</v>
+        <v>-0.09027526504992242</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>0.1348720221757201</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.08820288203208373</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0.4448109064662223</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.238492836151547</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.04806693937195443</v>
+        <v>0.2156906137463059</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>0.3995837833500135</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -7422,121 +7422,121 @@
         <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.1630466656532979</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>-0.1009811405320288</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0759400166459018</v>
+        <v>-0</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF13" t="n">
         <v>-0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.1140955676532426</v>
+        <v>0.07844045528853054</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>0.2675494808129998</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.101972963926048</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0</v>
+        <v>-0.00837440999730292</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.16978121371426</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
         <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.09750406317401851</v>
+        <v>0.03262800729064194</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>-0.002595374667331275</v>
       </c>
       <c r="BR13" t="n">
         <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0.1183672057991518</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0</v>
+        <v>-0.2273299029261642</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.08981422482198831</v>
+        <v>-0</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.1745796566875052</v>
+        <v>0.1743161567832233</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>0.3492650432421383</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
         <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.2931883729758716</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0.1466973193875671</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.04377712429795353</v>
+        <v>-0</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.06947779883209707</v>
+        <v>-0.1083026618481219</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>-0.1886186134081402</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0.04912874445983673</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>0</v>
+        <v>-0.01875334290578856</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0.1562353887115703</v>
+        <v>-0</v>
       </c>
       <c r="CO13" t="n">
         <v>-0</v>
@@ -7545,64 +7545,64 @@
         <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.002847660159495808</v>
+        <v>-0.2252678630338915</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.0512286086547812</v>
       </c>
       <c r="CS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.06433786702932984</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>0</v>
+        <v>0.1423909425215244</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.05601407876211372</v>
+        <v>0</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.05974386749511449</v>
+        <v>-0.1195278599833101</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>-0.2003687367996605</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0.06260327631125669</v>
+        <v>-0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0.0002101936709146741</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.004785985739956262</v>
+        <v>-0</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.01775460262253621</v>
+        <v>-0.02702742021236096</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>0.02854417735916088</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7611,40 +7611,40 @@
         <v>-0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0.03598029455600163</v>
+        <v>-0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>0.02557867975659735</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.07849708352557692</v>
+        <v>0</v>
       </c>
       <c r="DP13" t="n">
         <v>-0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.06194674403306025</v>
+        <v>-0.09624792146319265</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.1366563400087682</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.2090636872414912</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>0</v>
+        <v>0.05797030380971467</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.1239284759276637</v>
+        <v>-0</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
@@ -7653,10 +7653,10 @@
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.1728224778911102</v>
+        <v>-0.06254157145011957</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>-0.1433673708501836</v>
       </c>
       <c r="EC13" t="n">
         <v>0</v>
@@ -7665,13 +7665,13 @@
         <v>0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0.1323170906909635</v>
+        <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0.1169358342177791</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0.07151570905367995</v>
+        <v>-0</v>
       </c>
       <c r="EH13" t="n">
         <v>-0</v>
@@ -7680,91 +7680,91 @@
         <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.133580866121355</v>
+        <v>-0.1277663371391074</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>-0.2001490593580545</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0.06132096053778412</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>-0.09312358941283772</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0.126921772654661</v>
+        <v>-0</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.04444864957611491</v>
+        <v>0.109772686334006</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>-0.0392422289952717</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0.2035296902633705</v>
+        <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0.1251982994794262</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.06083656813981234</v>
+        <v>-0</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
         <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.06168648869795065</v>
+        <v>-0.1273008022724653</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>-0.1907074661327267</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0.08022345801357558</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0.06192568629842234</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.02126677260488721</v>
+        <v>0</v>
       </c>
       <c r="FI13" t="n">
         <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.1635037210193073</v>
+        <v>-0.08023378657634928</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>-0.03082053143386415</v>
       </c>
       <c r="FM13" t="n">
         <v>0</v>
@@ -7773,40 +7773,40 @@
         <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.02087535207510894</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>0.1236631395122386</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.1864431236616</v>
+        <v>0</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS13" t="n">
         <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.06550814430067102</v>
+        <v>-0.03567853050519221</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.05632624284771327</v>
       </c>
       <c r="FV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0.1462237659048041</v>
+        <v>-0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0.04118008282858749</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0.04179264791712856</v>
+        <v>0</v>
       </c>
       <c r="GA13" t="n">
         <v>0</v>
@@ -7818,24 +7818,24 @@
         <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>0.08204146221067565</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>-0.02170950635243808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.3569671946857874</v>
       </c>
       <c r="C14" t="n">
         <v>-0</v>
@@ -7844,25 +7844,25 @@
         <v>-0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08539995684052269</v>
+        <v>0.06656940123547546</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.9216725216224668</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2597903641724554</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1280380167772849</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0.2737033222309432</v>
       </c>
       <c r="L14" t="n">
         <v>-0</v>
@@ -7871,79 +7871,79 @@
         <v>-0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.101145501395309</v>
+        <v>-0.01658600799988601</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.7649667451879233</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2742400282080404</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1298287956046603</v>
+        <v>-0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0.05719204572681222</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.1687317647927151</v>
+        <v>0.1686889357409242</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.06897399773167588</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.07170199046610687</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.04075634866423294</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0.05614567959215743</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.09657875326786097</v>
+        <v>0.01007345927082084</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>0.03208653042323651</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0305223239225704</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.04839522135748384</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0.02037371071768949</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7952,214 +7952,214 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.005201730663111276</v>
+        <v>-0.03314151075055025</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0.1759399421345491</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.03018706411401532</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.003573370699789744</v>
+        <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0.20859707926766</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.05906691254759757</v>
+        <v>0.1258545862904143</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0</v>
+        <v>0.5977179801262149</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.009724841006801781</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
         <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0.09395306943620266</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0.1306871269030099</v>
       </c>
       <c r="BE14" t="n">
         <v>-0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1580632510682991</v>
+        <v>0.09974013710805751</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>0.1421953923210451</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.1725581707929831</v>
+        <v>-0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0.002493420769564833</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0.1819513713098827</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.009632166169108036</v>
+        <v>-0.0449565825088249</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0.01534099958181424</v>
       </c>
       <c r="BR14" t="n">
-        <v>-0.03120735727021798</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
         <v>-0</v>
       </c>
       <c r="BT14" t="n">
-        <v>-0.005266624761704353</v>
+        <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>-0.1942950071460315</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.06545096706703293</v>
+        <v>0.1198023333612921</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>0.2972326714326751</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.05927123586340051</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
         <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>-0.1016528190811029</v>
+        <v>0</v>
       </c>
       <c r="CD14" t="n">
         <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>0.1218587601129074</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.008973878137524469</v>
+        <v>-0.02780332566428922</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0</v>
+        <v>-0.1569921936519707</v>
       </c>
       <c r="CJ14" t="n">
-        <v>-0.04154096152171145</v>
+        <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.01561894325645099</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
         <v>-0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0.02884541107586273</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.05131853235270424</v>
+        <v>-0.1770790714722587</v>
       </c>
       <c r="CR14" t="n">
-        <v>0</v>
+        <v>0.04202087806774704</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.00496139159563116</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0.03764478443971319</v>
+        <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>0.09653315414127776</v>
       </c>
       <c r="CX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY14" t="n">
         <v>-0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.006723250323198753</v>
+        <v>0.004001961650504946</v>
       </c>
       <c r="DA14" t="n">
-        <v>0</v>
+        <v>-0.1669314284311001</v>
       </c>
       <c r="DB14" t="n">
-        <v>-0.05254642763356704</v>
+        <v>-0</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.01702809349127272</v>
+        <v>-0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF14" t="n">
-        <v>-0</v>
+        <v>0.1164383788079185</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8168,106 +8168,106 @@
         <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.1066747339208702</v>
+        <v>-0.2371704280475662</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0</v>
+        <v>0.02673434692621181</v>
       </c>
       <c r="DK14" t="n">
-        <v>-0.01901762410095225</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0.01361148176247757</v>
+        <v>-0</v>
       </c>
       <c r="DN14" t="n">
         <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>0.002235822006535227</v>
       </c>
       <c r="DP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ14" t="n">
         <v>-0</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.01141603462399901</v>
+        <v>-0.1461313039804342</v>
       </c>
       <c r="DS14" t="n">
-        <v>0</v>
+        <v>0.01223239577011441</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.06421151250566813</v>
+        <v>0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>-0.07490150393880178</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0.1030083624061013</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
         <v>0</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.04122986472025141</v>
+        <v>-0.02619482282929341</v>
       </c>
       <c r="EB14" t="n">
-        <v>0</v>
+        <v>-0.1240610339648263</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.006942779607793355</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.09538818837985402</v>
+        <v>-0</v>
       </c>
       <c r="EF14" t="n">
         <v>-0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>0.08718388723853845</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.03364096764240643</v>
+        <v>0.03298838968276102</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>-0.1460912345016882</v>
       </c>
       <c r="EL14" t="n">
-        <v>-0.05002225235917204</v>
+        <v>0</v>
       </c>
       <c r="EM14" t="n">
         <v>0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.0008315284259827511</v>
+        <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>0.02140715824691693</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8276,25 +8276,25 @@
         <v>0</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.01670861209279059</v>
+        <v>-0.0005751387770164082</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0</v>
+        <v>-0.0275331746029008</v>
       </c>
       <c r="EU14" t="n">
-        <v>-0.0413915756411444</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.01062736073621092</v>
+        <v>0</v>
       </c>
       <c r="EX14" t="n">
         <v>-0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>0.0757683595024652</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8303,405 +8303,405 @@
         <v>0</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.02494785463419719</v>
+        <v>-0.02713846110652639</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0</v>
+        <v>-0.1590163242154568</v>
       </c>
       <c r="FD14" t="n">
-        <v>-0.04797924640319387</v>
+        <v>0</v>
       </c>
       <c r="FE14" t="n">
         <v>-0</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.02080223470823811</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0.06090043730127295</v>
       </c>
       <c r="FI14" t="n">
         <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.05243604394826828</v>
+        <v>0.00184131705350354</v>
       </c>
       <c r="FL14" t="n">
-        <v>-0</v>
+        <v>-0.08133602047876268</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0.02273910895459223</v>
+        <v>-0</v>
       </c>
       <c r="FN14" t="n">
         <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0.01057287856480555</v>
+        <v>-0</v>
       </c>
       <c r="FP14" t="n">
         <v>-0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>0.04521181014366062</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS14" t="n">
         <v>0</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.05204102783558206</v>
+        <v>-0.2199894422274603</v>
       </c>
       <c r="FU14" t="n">
-        <v>0</v>
+        <v>-0.1815904824812834</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.03891021353681404</v>
+        <v>-0</v>
       </c>
       <c r="FW14" t="n">
         <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.1170190886941671</v>
+        <v>-0</v>
       </c>
       <c r="FY14" t="n">
         <v>0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0</v>
+        <v>-0.0424635482328206</v>
       </c>
       <c r="GA14" t="n">
         <v>0</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC14" t="n">
         <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>0.09134330673832675</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.07218017954478401</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
         <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.0675987328329065</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>-0.05732411505266691</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.5587666042653078</v>
       </c>
       <c r="C15" t="n">
         <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08423193506459119</v>
+        <v>-0.3112853669055824</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03553593510303425</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1035219500751138</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0.0311955465058644</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.3576512310259512</v>
       </c>
       <c r="L15" t="n">
         <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1767255799586549</v>
+        <v>-0.3290948631682928</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.108905984344688</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.04044191594450797</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>-0.05459591661367025</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.09943637278768151</v>
       </c>
       <c r="U15" t="n">
         <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02664028589150033</v>
+        <v>-0.0381534313993283</v>
       </c>
       <c r="X15" t="n">
         <v>-0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0338539449316381</v>
+        <v>-0</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.08608826419546076</v>
+        <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0.04782701465929878</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.2168302266515969</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.06922380051386759</v>
+        <v>-0.04870322846599174</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.07826055463836674</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.0533585729893413</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>-0.03947883267787088</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.04748704916369009</v>
       </c>
       <c r="AM15" t="n">
         <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.03065679505272493</v>
+        <v>-0.04380458989417103</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.003333193973734258</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0284566068250902</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>-0.007942386031486837</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.4647969014891534</v>
       </c>
       <c r="AV15" t="n">
         <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.09854763401073834</v>
+        <v>0.08232723320466985</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0.0707106153405468</v>
+        <v>-0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.03657516206181344</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>0.01782337058591764</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.08560304295674478</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.1742944441234959</v>
+        <v>-0.2696172007958307</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.08872391651580745</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.04389821467043217</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0.05813868048347309</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.2364757294151906</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.06444992808745859</v>
+        <v>0.1440826042483352</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0.03458048890521211</v>
+        <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-0.02127863229629286</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>0.02695142411300262</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.2741289847155163</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.1273640437934743</v>
+        <v>0.01233262798707283</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.01168986413020488</v>
+        <v>-0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC15" t="n">
-        <v>-0.0371027601690466</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0.02093874973854538</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>-0.07489175295366908</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG15" t="n">
         <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.002648553417648489</v>
+        <v>0.04802460596123808</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.01111903999029248</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.006919539008008305</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>-0.08113030290403724</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0.05130960331705298</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.06461791727104108</v>
+        <v>-0.1557460046302008</v>
       </c>
       <c r="CR15" t="n">
         <v>0</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0.008520716265734345</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0.02726727077927164</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>0.009885050603866524</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>-0.04058789083020406</v>
       </c>
       <c r="CX15" t="n">
         <v>-0</v>
@@ -8710,241 +8710,241 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.009868613334395598</v>
+        <v>0.0343371583514962</v>
       </c>
       <c r="DA15" t="n">
         <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0.002641648293570025</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.02819394489377886</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>0</v>
+        <v>-0.04124208046554814</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>-0.1015724813196529</v>
       </c>
       <c r="DG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
         <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.05993811753467459</v>
+        <v>0.1403525221635555</v>
       </c>
       <c r="DJ15" t="n">
         <v>0</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0.008233866208456153</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
         <v>0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.03076368240730375</v>
+        <v>-0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>-0.05182586204693099</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.02621277342157687</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.05833211152012681</v>
+        <v>-0.1048384018101567</v>
       </c>
       <c r="DS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.0335310572262944</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
         <v>-0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.07558981429613966</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>-0.03022595117260291</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.06468790586757937</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.01601464943615365</v>
+        <v>0.08989740389370719</v>
       </c>
       <c r="EB15" t="n">
         <v>0</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.0217677035930447</v>
+        <v>-0</v>
       </c>
       <c r="ED15" t="n">
         <v>0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.03884072118885575</v>
+        <v>-0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>-0.008250936393093189</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0</v>
+        <v>-0.06591892135029737</v>
       </c>
       <c r="EH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>7.691254740460469e-05</v>
+        <v>0.0812537730863197</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.01949630675627096</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.03216863420075462</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>-0.05475413324868535</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>-0.03118346307603866</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.04189862837660613</v>
+        <v>-0.01163445658743485</v>
       </c>
       <c r="ET15" t="n">
         <v>-0</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0.02629197925427958</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0.005072484586369145</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0.002219170222916915</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0</v>
+        <v>-0.04766320319669653</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.01676457657824701</v>
+        <v>0.03010315613205233</v>
       </c>
       <c r="FC15" t="n">
         <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.003774032809074395</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.00994013438566693</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0</v>
+        <v>0.007314439201141072</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>0.0004657310381435379</v>
       </c>
       <c r="FI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ15" t="n">
         <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.02062569371125908</v>
+        <v>-0.1322291694523732</v>
       </c>
       <c r="FL15" t="n">
         <v>-0</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.03304458848145314</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
         <v>0</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.004699431471757435</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>-0.07561915673084217</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>-0.002271722556737243</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.01879179651365461</v>
+        <v>-0.06381162229372755</v>
       </c>
       <c r="FU15" t="n">
         <v>-0</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.047410904145455</v>
+        <v>-0</v>
       </c>
       <c r="FW15" t="n">
         <v>0</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.08739870628340318</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0</v>
+        <v>-0.06877409667588533</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>-0.0174452672588998</v>
       </c>
       <c r="GA15" t="n">
         <v>0</v>
@@ -8953,19 +8953,19 @@
         <v>-0</v>
       </c>
       <c r="GC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.1047332206606589</v>
+        <v>0</v>
       </c>
       <c r="GF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.07434003735284878</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
